--- a/Survey on Microbial Wheat Disease Losses.xlsx
+++ b/Survey on Microbial Wheat Disease Losses.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
@@ -94,7 +94,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Total entrise should sum to 10 years.</t>
+Total entrise should sum to your chosen time period</t>
         </r>
       </text>
     </comment>
@@ -505,7 +505,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US"/>
-            <a:t>To that end we are seeking to gather information on the incidence and impact of the major wheat diseases in different geographical regions around the world over both recent times (last 10 years) and in a more historical context (last 25 or 50 years). We therefore ask you to provide estimates of disease impact over these periods based on your knowledge or institutional records in your area.</a:t>
+            <a:t>To that end we are seeking to gather information on the incidence and impact of the major microbial wheat diseases in different geographical regions around the world over both recent times (past 10 years) and in a more historical context (past 25 or 50 years). We therefore ask you to provide estimates of the losses attributable to these diseases over these periods based on your knowledge or relevant records.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -814,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="N3:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
